--- a/Locations/GB1900_Gauges_and_Meters.xlsx
+++ b/Locations/GB1900_Gauges_and_Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20DD79D-85C9-4E39-8C54-54AE9F08A183}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFED143-4EEB-4A54-AF9A-D47A2879E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="GB1900_Gauges_and_Meters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GB1900_Gauges_and_Meters!$A$1:$J$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GB1900_Gauges_and_Meters!$A$1:$J$315</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="980">
   <si>
     <t>Country</t>
   </si>
@@ -2860,6 +2860,120 @@
   </si>
   <si>
     <t>NLS Link</t>
+  </si>
+  <si>
+    <t>Meteorological Station (Blackpool Corporation)</t>
+  </si>
+  <si>
+    <t>SD3199637822</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.83219429&amp;lon=-3.034747839&amp;layers=6&amp;b=1&amp;marker=53.83219429,-3.034747839</t>
+  </si>
+  <si>
+    <t>Burnley (Un-parished)</t>
+  </si>
+  <si>
+    <t>Meteorological Station</t>
+  </si>
+  <si>
+    <t>SD8488333400</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.79669038&amp;lon=-2.230964899&amp;layers=6&amp;b=1&amp;marker=53.79669038,-2.230964899</t>
+  </si>
+  <si>
+    <t>the Isle of Anglesey</t>
+  </si>
+  <si>
+    <t>Meteorological Office</t>
+  </si>
+  <si>
+    <t>SH2513283415</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.318704&amp;lon=-4.626692533&amp;layers=6&amp;b=1&amp;marker=53.318704,-4.626692533</t>
+  </si>
+  <si>
+    <t>Monzievaird and Strowan</t>
+  </si>
+  <si>
+    <t>NN8350523560</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=56.38990422&amp;lon=-3.888580799&amp;layers=6&amp;b=1&amp;marker=56.38990422,-3.888580799</t>
+  </si>
+  <si>
+    <t>East Devon</t>
+  </si>
+  <si>
+    <t>Combpyne Rousdon</t>
+  </si>
+  <si>
+    <t>Meteorological Observatory</t>
+  </si>
+  <si>
+    <t>SY2978890765</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=50.71226236&amp;lon=-2.995802164&amp;layers=6&amp;b=1&amp;marker=50.71226236,-2.995802164</t>
+  </si>
+  <si>
+    <t>Taunton Deane</t>
+  </si>
+  <si>
+    <t>Comeytrowe</t>
+  </si>
+  <si>
+    <t>ST2161723179</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=51.00264303&amp;lon=-3.118464947&amp;layers=6&amp;b=1&amp;marker=51.00264303,-3.118464947</t>
+  </si>
+  <si>
+    <t>Suffolk Coastal</t>
+  </si>
+  <si>
+    <t>Hollesley</t>
+  </si>
+  <si>
+    <t>TM3662444678</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=52.04994374&amp;lon=1.449637413&amp;layers=6&amp;b=1&amp;marker=52.04994374,1.449637413</t>
+  </si>
+  <si>
+    <t>Teignbridge</t>
+  </si>
+  <si>
+    <t>SX9414872572</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=50.54331299&amp;lon=-3.495240211&amp;layers=6&amp;b=1&amp;marker=50.54331299,-3.495240211</t>
+  </si>
+  <si>
+    <t>Broughton East</t>
+  </si>
+  <si>
+    <t>meteorological station</t>
+  </si>
+  <si>
+    <t>SD3868879442</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=54.20704206&amp;lon=-2.941503525&amp;layers=6&amp;b=1&amp;marker=54.20704206,-2.941503525</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Plymouth (Un-parished)</t>
+  </si>
+  <si>
+    <t>SX5032759163</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=50.41322156&amp;lon=-4.107931852&amp;layers=6&amp;b=1&amp;marker=50.41322156,-4.107931852</t>
   </si>
 </sst>
 </file>
@@ -3712,14 +3826,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:K315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3948,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3871,7 +3984,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +4089,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4048,7 +4161,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -4084,7 +4197,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -4120,7 +4233,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -4189,7 +4302,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -4225,7 +4338,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4333,7 +4446,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4657,7 +4770,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -4693,7 +4806,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -4729,7 +4842,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -4801,7 +4914,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -4909,7 +5022,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -4981,7 +5094,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -5017,7 +5130,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -5161,7 +5274,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -5233,7 +5346,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -5269,7 +5382,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -5302,7 +5415,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5446,7 +5559,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -5590,7 +5703,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -5623,7 +5736,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -5656,7 +5769,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -5692,7 +5805,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -5725,7 +5838,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -5758,7 +5871,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -5791,7 +5904,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -5863,7 +5976,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -5899,7 +6012,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -5971,7 +6084,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -6007,7 +6120,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -6040,7 +6153,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -6145,7 +6258,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -6253,7 +6366,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -6289,7 +6402,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -6358,7 +6471,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +6543,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -6499,7 +6612,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -6607,7 +6720,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -6643,7 +6756,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -6679,7 +6792,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -6751,7 +6864,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -6787,7 +6900,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -6823,7 +6936,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -6895,7 +7008,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -6931,7 +7044,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -7003,7 +7116,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -7039,7 +7152,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +7188,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -7111,7 +7224,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -7147,7 +7260,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -7183,7 +7296,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -7219,7 +7332,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -7291,7 +7404,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -7327,7 +7440,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -7399,7 +7512,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -7435,7 +7548,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -7471,7 +7584,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -7687,7 +7800,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -7723,7 +7836,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -7759,7 +7872,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -7828,7 +7941,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8260,7 +8373,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -8368,7 +8481,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -8440,7 +8553,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -8476,7 +8589,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -8620,7 +8733,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -8764,7 +8877,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -8836,7 +8949,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -9052,7 +9165,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>75</v>
       </c>
@@ -9232,7 +9345,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -9304,7 +9417,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -9340,7 +9453,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -9376,7 +9489,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -9412,7 +9525,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -9448,7 +9561,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -9736,7 +9849,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -9844,7 +9957,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -9952,7 +10065,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -10204,7 +10317,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -10240,7 +10353,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -10492,7 +10605,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -10528,7 +10641,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -10744,7 +10857,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -10780,7 +10893,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -11284,7 +11397,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -11356,7 +11469,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -11428,7 +11541,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -11536,7 +11649,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -11572,7 +11685,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -11608,7 +11721,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -11644,7 +11757,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -11716,7 +11829,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -11752,7 +11865,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -11788,7 +11901,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -11896,7 +12009,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -12040,7 +12153,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -12112,7 +12225,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -12148,7 +12261,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -12328,7 +12441,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -12400,7 +12513,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -12796,7 +12909,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -13008,11 +13121,11 @@
         <v>835</v>
       </c>
       <c r="K259" s="1" t="str">
-        <f t="shared" ref="K259:K305" si="4">HYPERLINK(J259, "URL Link")</f>
-        <v>URL Link</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K259:K315" si="4">HYPERLINK(J259, "URL Link")</f>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -13228,7 +13341,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -13444,7 +13557,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -13588,7 +13701,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -13624,7 +13737,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>10</v>
       </c>
@@ -13660,7 +13773,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -13696,7 +13809,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -13732,7 +13845,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -13768,7 +13881,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -13876,7 +13989,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -13912,7 +14025,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -13948,7 +14061,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -13984,7 +14097,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -14020,7 +14133,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -14056,7 +14169,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -14128,7 +14241,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -14200,7 +14313,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -14305,7 +14418,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -14341,7 +14454,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -14377,7 +14490,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>10</v>
       </c>
@@ -14449,7 +14562,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -14482,7 +14595,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -14551,7 +14664,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>10</v>
       </c>
@@ -14623,7 +14736,7 @@
         <v>URL Link</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>10</v>
       </c>
@@ -14659,14 +14772,362 @@
         <v>URL Link</v>
       </c>
     </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" t="s">
+        <v>976</v>
+      </c>
+      <c r="C306" t="s">
+        <v>977</v>
+      </c>
+      <c r="D306" t="s">
+        <v>973</v>
+      </c>
+      <c r="E306">
+        <v>250327.62789999999</v>
+      </c>
+      <c r="F306">
+        <v>59163.432220000002</v>
+      </c>
+      <c r="G306">
+        <v>50.413221559999997</v>
+      </c>
+      <c r="H306">
+        <v>-4.1079318520000001</v>
+      </c>
+      <c r="I306" t="s">
+        <v>978</v>
+      </c>
+      <c r="J306" t="s">
+        <v>979</v>
+      </c>
+      <c r="K306" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>279</v>
+      </c>
+      <c r="C307" t="s">
+        <v>280</v>
+      </c>
+      <c r="D307" t="s">
+        <v>942</v>
+      </c>
+      <c r="E307">
+        <v>331996.94620000001</v>
+      </c>
+      <c r="F307">
+        <v>437822.77710000001</v>
+      </c>
+      <c r="G307">
+        <v>53.832194289999997</v>
+      </c>
+      <c r="H307">
+        <v>-3.034747839</v>
+      </c>
+      <c r="I307" t="s">
+        <v>943</v>
+      </c>
+      <c r="J307" t="s">
+        <v>944</v>
+      </c>
+      <c r="K307" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>129</v>
+      </c>
+      <c r="C308" t="s">
+        <v>945</v>
+      </c>
+      <c r="D308" t="s">
+        <v>946</v>
+      </c>
+      <c r="E308">
+        <v>384883.8101</v>
+      </c>
+      <c r="F308">
+        <v>433400.69069999998</v>
+      </c>
+      <c r="G308">
+        <v>53.796690380000001</v>
+      </c>
+      <c r="H308">
+        <v>-2.2309648989999999</v>
+      </c>
+      <c r="I308" t="s">
+        <v>947</v>
+      </c>
+      <c r="J308" t="s">
+        <v>948</v>
+      </c>
+      <c r="K308" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>66</v>
+      </c>
+      <c r="B309" t="s">
+        <v>949</v>
+      </c>
+      <c r="D309" t="s">
+        <v>950</v>
+      </c>
+      <c r="E309">
+        <v>225132.19589999999</v>
+      </c>
+      <c r="F309">
+        <v>383415.24359999999</v>
+      </c>
+      <c r="G309">
+        <v>53.318703999999997</v>
+      </c>
+      <c r="H309">
+        <v>-4.6266925329999999</v>
+      </c>
+      <c r="I309" t="s">
+        <v>951</v>
+      </c>
+      <c r="J309" t="s">
+        <v>952</v>
+      </c>
+      <c r="K309" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>75</v>
+      </c>
+      <c r="B310" t="s">
+        <v>80</v>
+      </c>
+      <c r="C310" t="s">
+        <v>953</v>
+      </c>
+      <c r="D310" t="s">
+        <v>946</v>
+      </c>
+      <c r="E310">
+        <v>283505.2892</v>
+      </c>
+      <c r="F310">
+        <v>723560.00560000003</v>
+      </c>
+      <c r="G310">
+        <v>56.389904219999998</v>
+      </c>
+      <c r="H310">
+        <v>-3.8885807990000001</v>
+      </c>
+      <c r="I310" t="s">
+        <v>954</v>
+      </c>
+      <c r="J310" t="s">
+        <v>955</v>
+      </c>
+      <c r="K310" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>956</v>
+      </c>
+      <c r="C311" t="s">
+        <v>957</v>
+      </c>
+      <c r="D311" t="s">
+        <v>958</v>
+      </c>
+      <c r="E311">
+        <v>329788.62760000001</v>
+      </c>
+      <c r="F311">
+        <v>90765.376420000001</v>
+      </c>
+      <c r="G311">
+        <v>50.712262359999997</v>
+      </c>
+      <c r="H311">
+        <v>-2.9958021640000001</v>
+      </c>
+      <c r="I311" t="s">
+        <v>959</v>
+      </c>
+      <c r="J311" t="s">
+        <v>960</v>
+      </c>
+      <c r="K311" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" t="s">
+        <v>961</v>
+      </c>
+      <c r="C312" t="s">
+        <v>962</v>
+      </c>
+      <c r="D312" t="s">
+        <v>958</v>
+      </c>
+      <c r="E312">
+        <v>321617.38929999998</v>
+      </c>
+      <c r="F312">
+        <v>123179.42750000001</v>
+      </c>
+      <c r="G312">
+        <v>51.002643030000002</v>
+      </c>
+      <c r="H312">
+        <v>-3.1184649470000001</v>
+      </c>
+      <c r="I312" t="s">
+        <v>963</v>
+      </c>
+      <c r="J312" t="s">
+        <v>964</v>
+      </c>
+      <c r="K312" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" t="s">
+        <v>965</v>
+      </c>
+      <c r="C313" t="s">
+        <v>966</v>
+      </c>
+      <c r="D313" t="s">
+        <v>946</v>
+      </c>
+      <c r="E313">
+        <v>636624.92460000003</v>
+      </c>
+      <c r="F313">
+        <v>244678.39739999999</v>
+      </c>
+      <c r="G313">
+        <v>52.049943740000003</v>
+      </c>
+      <c r="H313">
+        <v>1.449637413</v>
+      </c>
+      <c r="I313" t="s">
+        <v>967</v>
+      </c>
+      <c r="J313" t="s">
+        <v>968</v>
+      </c>
+      <c r="K313" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" t="s">
+        <v>969</v>
+      </c>
+      <c r="D314" t="s">
+        <v>946</v>
+      </c>
+      <c r="E314">
+        <v>294148.44689999998</v>
+      </c>
+      <c r="F314">
+        <v>72572.954249999995</v>
+      </c>
+      <c r="G314">
+        <v>50.543312989999997</v>
+      </c>
+      <c r="H314">
+        <v>-3.495240211</v>
+      </c>
+      <c r="I314" t="s">
+        <v>970</v>
+      </c>
+      <c r="J314" t="s">
+        <v>971</v>
+      </c>
+      <c r="K314" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>193</v>
+      </c>
+      <c r="C315" t="s">
+        <v>972</v>
+      </c>
+      <c r="D315" t="s">
+        <v>973</v>
+      </c>
+      <c r="E315">
+        <v>338688.30119999999</v>
+      </c>
+      <c r="F315">
+        <v>479442.68579999998</v>
+      </c>
+      <c r="G315">
+        <v>54.207042059999999</v>
+      </c>
+      <c r="H315">
+        <v>-2.9415035249999999</v>
+      </c>
+      <c r="I315" t="s">
+        <v>974</v>
+      </c>
+      <c r="J315" t="s">
+        <v>975</v>
+      </c>
+      <c r="K315" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>URL Link</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J305" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Rain Gauge"/>
-        <filter val="Rain Guage"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:J315" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J305">
       <sortCondition ref="H1:H305"/>
     </sortState>
